--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_summer.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_summer.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,511 +417,698 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>35221</v>
+        <v>31228</v>
       </c>
       <c r="B2">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C2">
-        <v>-0.6785505155195604</v>
+        <v>1.058157908195101</v>
       </c>
       <c r="D2">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E2">
-        <v>-1.188578696562748</v>
+        <v>-0.2746413702905404</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35586</v>
+        <v>31593</v>
       </c>
       <c r="B3">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C3">
-        <v>1.695006817304967</v>
+        <v>0.613400232493766</v>
       </c>
       <c r="D3">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E3">
-        <v>1.278023271204054</v>
+        <v>-0.6878195673301057</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35950</v>
+        <v>31958</v>
       </c>
       <c r="B4">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C4">
-        <v>2.847469613938181</v>
+        <v>-2.809251799599333</v>
       </c>
       <c r="D4">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E4">
-        <v>2.968999233486636</v>
+        <v>-5.22296739181829</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>36319</v>
+        <v>32324</v>
       </c>
       <c r="B5">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C5">
-        <v>0.8798915307165922</v>
+        <v>1.311815945521522</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E5">
-        <v>0.9767994936995539</v>
+        <v>-0.2360507986455929</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>36676</v>
+        <v>32689</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C6">
-        <v>2.656958100102846</v>
+        <v>4.646141329820397</v>
       </c>
       <c r="D6">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E6">
-        <v>2.731710176905877</v>
+        <v>4.409069002718513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>37034</v>
+        <v>33054</v>
       </c>
       <c r="B7">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C7">
-        <v>1.426159487177681</v>
+        <v>6.234545104864941</v>
       </c>
       <c r="D7">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E7">
-        <v>1.268063782307416</v>
+        <v>7.271550582979214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>37399</v>
+        <v>33419</v>
       </c>
       <c r="B8">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C8">
-        <v>-0.09079305020236461</v>
+        <v>9.12959361095953</v>
       </c>
       <c r="D8">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E8">
-        <v>0.1072756205915404</v>
+        <v>10.06345753894098</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>37756</v>
+        <v>33785</v>
       </c>
       <c r="B9">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C9">
-        <v>-0.2852992240488517</v>
+        <v>3.770303686471776</v>
       </c>
       <c r="D9">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E9">
-        <v>-0.6434466511772374</v>
+        <v>4.833608027690683</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>38120</v>
+        <v>34150</v>
       </c>
       <c r="B10">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C10">
-        <v>1.25935754237172</v>
+        <v>-3.631379003451563</v>
       </c>
       <c r="D10">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E10">
-        <v>1.52755625946297</v>
+        <v>-4.837330717035071</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>38484</v>
+        <v>34515</v>
       </c>
       <c r="B11">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C11">
-        <v>1.849854064762901</v>
+        <v>2.525367061038386</v>
       </c>
       <c r="D11">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E11">
-        <v>2.608452643869552</v>
+        <v>2.890876292836841</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>38848</v>
+        <v>34880</v>
       </c>
       <c r="B12">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C12">
-        <v>1.134182589932542</v>
+        <v>1.86590761958525</v>
       </c>
       <c r="D12">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E12">
-        <v>0.9849328351749564</v>
+        <v>1.408414909230937</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>39217</v>
+        <v>35221</v>
       </c>
       <c r="B13">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C13">
-        <v>3.046387543902274</v>
+        <v>-0.6785505155195604</v>
       </c>
       <c r="D13">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E13">
-        <v>2.70919674139074</v>
+        <v>-1.188578696562748</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>39583</v>
+        <v>35586</v>
       </c>
       <c r="B14">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C14">
-        <v>3.696216801135943</v>
+        <v>1.695006817304967</v>
       </c>
       <c r="D14">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E14">
-        <v>4.482779680928051</v>
+        <v>1.278023271204054</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>39948</v>
+        <v>35950</v>
       </c>
       <c r="B15">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C15">
-        <v>-10.1884206506174</v>
+        <v>2.847469613938181</v>
       </c>
       <c r="D15">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E15">
-        <v>-12.44886541640216</v>
+        <v>2.968999233486636</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>40310</v>
+        <v>36319</v>
       </c>
       <c r="B16">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C16">
-        <v>1.026818295716803</v>
+        <v>0.8798915307165922</v>
       </c>
       <c r="D16">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E16">
-        <v>0.6731564222281827</v>
+        <v>0.9767994936995539</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>40676</v>
+        <v>36676</v>
       </c>
       <c r="B17">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C17">
-        <v>4.330112454756896</v>
+        <v>2.656958100102846</v>
       </c>
       <c r="D17">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E17">
-        <v>4.541390901327569</v>
+        <v>2.731710176905877</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41044</v>
+        <v>37034</v>
       </c>
       <c r="B18">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C18">
-        <v>1.087923448804795</v>
+        <v>1.426159487177681</v>
       </c>
       <c r="D18">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E18">
-        <v>1.111295745068719</v>
+        <v>1.268063782307416</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41409</v>
+        <v>37399</v>
       </c>
       <c r="B19">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C19">
-        <v>-0.6600930445666675</v>
+        <v>-0.09079305020236461</v>
       </c>
       <c r="D19">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E19">
-        <v>-0.7631906159002333</v>
+        <v>0.1072756205915404</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41774</v>
+        <v>37756</v>
       </c>
       <c r="B20">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C20">
-        <v>2.439056157886133</v>
+        <v>-0.2852992240488517</v>
       </c>
       <c r="D20">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E20">
-        <v>2.712995226103132</v>
+        <v>-0.6434466511772374</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42137</v>
+        <v>38120</v>
       </c>
       <c r="B21">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C21">
-        <v>1.478929861176237</v>
+        <v>1.25935754237172</v>
       </c>
       <c r="D21">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E21">
-        <v>1.676382600382564</v>
+        <v>1.52755625946297</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>42503</v>
+        <v>38484</v>
       </c>
       <c r="B22">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C22">
-        <v>1.880356773996161</v>
+        <v>1.849854064762901</v>
       </c>
       <c r="D22">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E22">
-        <v>2.143034813277178</v>
+        <v>2.608452643869552</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>42867</v>
+        <v>38848</v>
       </c>
       <c r="B23">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C23">
-        <v>1.929223532179036</v>
+        <v>1.134182589932542</v>
       </c>
       <c r="D23">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E23">
-        <v>2.187377386010447</v>
+        <v>0.9849328351749564</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>39217</v>
       </c>
       <c r="B24">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C24">
-        <v>1.919825538525988</v>
+        <v>3.046387543902274</v>
       </c>
       <c r="D24">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E24">
-        <v>1.616739045460869</v>
+        <v>2.70919674139074</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43600</v>
+        <v>39583</v>
       </c>
       <c r="B25">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C25">
-        <v>0.8478136117613833</v>
+        <v>3.696216801135943</v>
       </c>
       <c r="D25">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E25">
-        <v>1.153059686387214</v>
+        <v>4.482779680928051</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43966</v>
+        <v>39948</v>
       </c>
       <c r="B26">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C26">
-        <v>-4.237342230872454</v>
+        <v>-10.1884206506174</v>
       </c>
       <c r="D26">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E26">
-        <v>-5.891534789017571</v>
+        <v>-12.44886541640216</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>44341</v>
+        <v>40310</v>
       </c>
       <c r="B27">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C27">
-        <v>-1.195442653096257</v>
+        <v>1.026818295716803</v>
       </c>
       <c r="D27">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E27">
-        <v>-4.00599668311078</v>
+        <v>0.6731564222281827</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>44706</v>
+        <v>40676</v>
       </c>
       <c r="B28">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C28">
-        <v>1.344786076589832</v>
+        <v>4.330112454756896</v>
       </c>
       <c r="D28">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E28">
-        <v>0.1554161503046547</v>
+        <v>4.541390901327569</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45071</v>
+        <v>41044</v>
       </c>
       <c r="B29">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C29">
-        <v>-1.149816025990236</v>
+        <v>1.087923448804795</v>
       </c>
       <c r="D29">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E29">
-        <v>-1.603768089243041</v>
+        <v>1.111295745068719</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45436</v>
+        <v>41409</v>
       </c>
       <c r="B30">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C30">
-        <v>-0.213677328227746</v>
+        <v>-0.6600930445666675</v>
       </c>
       <c r="D30">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E30">
-        <v>-0.1073236571678571</v>
+        <v>-0.7631906159002333</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="C31">
+        <v>2.439056157886133</v>
+      </c>
+      <c r="D31">
+        <v>2015</v>
+      </c>
+      <c r="E31">
+        <v>2.712995226103132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B32">
+        <v>2015</v>
+      </c>
+      <c r="C32">
+        <v>1.478929861176237</v>
+      </c>
+      <c r="D32">
+        <v>2016</v>
+      </c>
+      <c r="E32">
+        <v>1.676382600382564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B33">
+        <v>2016</v>
+      </c>
+      <c r="C33">
+        <v>1.880356773996161</v>
+      </c>
+      <c r="D33">
+        <v>2017</v>
+      </c>
+      <c r="E33">
+        <v>2.143034813277178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B34">
+        <v>2017</v>
+      </c>
+      <c r="C34">
+        <v>1.929223532179036</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
+      <c r="E34">
+        <v>2.187377386010447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35">
+        <v>1.919825538525988</v>
+      </c>
+      <c r="D35">
+        <v>2019</v>
+      </c>
+      <c r="E35">
+        <v>1.616739045460869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B36">
+        <v>2019</v>
+      </c>
+      <c r="C36">
+        <v>0.8478136117613833</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>1.153059686387214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37">
+        <v>-4.237342230872454</v>
+      </c>
+      <c r="D37">
+        <v>2021</v>
+      </c>
+      <c r="E37">
+        <v>-5.891534789017571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>-1.195442653096257</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="E38">
+        <v>-4.00599668311078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B39">
+        <v>2022</v>
+      </c>
+      <c r="C39">
+        <v>1.344786076589832</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
+      <c r="E39">
+        <v>0.1554161503046547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>-1.149816025990236</v>
+      </c>
+      <c r="D40">
+        <v>2024</v>
+      </c>
+      <c r="E40">
+        <v>-1.603768089243041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B41">
+        <v>2024</v>
+      </c>
+      <c r="C41">
+        <v>-0.213677328227746</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41">
+        <v>-0.1073236571678571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>45800</v>
       </c>
-      <c r="B31">
+      <c r="B42">
         <v>2025</v>
       </c>
-      <c r="C31">
+      <c r="C42">
         <v>0.4937964215598223</v>
       </c>
-      <c r="D31">
+      <c r="D42">
         <v>2026</v>
       </c>
-      <c r="E31">
+      <c r="E42">
         <v>0.8228551885782087</v>
       </c>
     </row>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_summer.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_summer.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,698 +417,630 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31228</v>
+        <v>32689</v>
       </c>
       <c r="B2">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C2">
-        <v>1.058157908195101</v>
+        <v>4.646141329820397</v>
       </c>
       <c r="D2">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E2">
-        <v>-0.2746413702905404</v>
+        <v>4.409069002718513</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>31593</v>
+        <v>33054</v>
       </c>
       <c r="B3">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C3">
-        <v>0.613400232493766</v>
+        <v>6.234545104864941</v>
       </c>
       <c r="D3">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E3">
-        <v>-0.6878195673301057</v>
+        <v>7.271550582979214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>31958</v>
+        <v>33419</v>
       </c>
       <c r="B4">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C4">
-        <v>-2.809251799599333</v>
+        <v>9.12959361095953</v>
       </c>
       <c r="D4">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E4">
-        <v>-5.22296739181829</v>
+        <v>10.06345753894098</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>32324</v>
+        <v>33785</v>
       </c>
       <c r="B5">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C5">
-        <v>1.311815945521522</v>
+        <v>3.770303686471776</v>
       </c>
       <c r="D5">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E5">
-        <v>-0.2360507986455929</v>
+        <v>4.833608027690683</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>32689</v>
+        <v>34150</v>
       </c>
       <c r="B6">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C6">
-        <v>4.646141329820397</v>
+        <v>-3.631379003451563</v>
       </c>
       <c r="D6">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E6">
-        <v>4.409069002718513</v>
+        <v>-4.837330717035071</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>33054</v>
+        <v>34515</v>
       </c>
       <c r="B7">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C7">
-        <v>6.234545104864941</v>
+        <v>2.525367061038386</v>
       </c>
       <c r="D7">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E7">
-        <v>7.271550582979214</v>
+        <v>2.890876292836841</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>33419</v>
+        <v>34880</v>
       </c>
       <c r="B8">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C8">
-        <v>9.12959361095953</v>
+        <v>1.86590761958525</v>
       </c>
       <c r="D8">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E8">
-        <v>10.06345753894098</v>
+        <v>1.408414909230937</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>33785</v>
+        <v>35221</v>
       </c>
       <c r="B9">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C9">
-        <v>3.770303686471776</v>
+        <v>-0.6785505155195604</v>
       </c>
       <c r="D9">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E9">
-        <v>4.833608027690683</v>
+        <v>-1.188578696562748</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>34150</v>
+        <v>35586</v>
       </c>
       <c r="B10">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C10">
-        <v>-3.631379003451563</v>
+        <v>1.695006817304967</v>
       </c>
       <c r="D10">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E10">
-        <v>-4.837330717035071</v>
+        <v>1.278023271204054</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>34515</v>
+        <v>35950</v>
       </c>
       <c r="B11">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C11">
-        <v>2.525367061038386</v>
+        <v>2.847469613938181</v>
       </c>
       <c r="D11">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E11">
-        <v>2.890876292836841</v>
+        <v>2.968999233486636</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>34880</v>
+        <v>36319</v>
       </c>
       <c r="B12">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C12">
-        <v>1.86590761958525</v>
+        <v>0.8798915307165922</v>
       </c>
       <c r="D12">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E12">
-        <v>1.408414909230937</v>
+        <v>0.9767994936995539</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>35221</v>
+        <v>36676</v>
       </c>
       <c r="B13">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C13">
-        <v>-0.6785505155195604</v>
+        <v>2.656958100102846</v>
       </c>
       <c r="D13">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E13">
-        <v>-1.188578696562748</v>
+        <v>2.731710176905877</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>35586</v>
+        <v>37034</v>
       </c>
       <c r="B14">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C14">
-        <v>1.695006817304967</v>
+        <v>1.426159487177681</v>
       </c>
       <c r="D14">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E14">
-        <v>1.278023271204054</v>
+        <v>1.268063782307416</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>35950</v>
+        <v>37399</v>
       </c>
       <c r="B15">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C15">
-        <v>2.847469613938181</v>
+        <v>-0.09079305020236461</v>
       </c>
       <c r="D15">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E15">
-        <v>2.968999233486636</v>
+        <v>0.1072756205915404</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36319</v>
+        <v>37756</v>
       </c>
       <c r="B16">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C16">
-        <v>0.8798915307165922</v>
+        <v>-0.2852992240488517</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E16">
-        <v>0.9767994936995539</v>
+        <v>-0.6434466511772374</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36676</v>
+        <v>38120</v>
       </c>
       <c r="B17">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C17">
-        <v>2.656958100102846</v>
+        <v>1.25935754237172</v>
       </c>
       <c r="D17">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E17">
-        <v>2.731710176905877</v>
+        <v>1.52755625946297</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>37034</v>
+        <v>38484</v>
       </c>
       <c r="B18">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C18">
-        <v>1.426159487177681</v>
+        <v>1.849854064762901</v>
       </c>
       <c r="D18">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E18">
-        <v>1.268063782307416</v>
+        <v>2.608452643869552</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>37399</v>
+        <v>38848</v>
       </c>
       <c r="B19">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C19">
-        <v>-0.09079305020236461</v>
+        <v>1.134182589932542</v>
       </c>
       <c r="D19">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E19">
-        <v>0.1072756205915404</v>
+        <v>0.9849328351749564</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>37756</v>
+        <v>39217</v>
       </c>
       <c r="B20">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C20">
-        <v>-0.2852992240488517</v>
+        <v>3.046387543902274</v>
       </c>
       <c r="D20">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E20">
-        <v>-0.6434466511772374</v>
+        <v>2.70919674139074</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>38120</v>
+        <v>39583</v>
       </c>
       <c r="B21">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C21">
-        <v>1.25935754237172</v>
+        <v>3.696216801135943</v>
       </c>
       <c r="D21">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E21">
-        <v>1.52755625946297</v>
+        <v>4.482779680928051</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>38484</v>
+        <v>39948</v>
       </c>
       <c r="B22">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C22">
-        <v>1.849854064762901</v>
+        <v>-10.1884206506174</v>
       </c>
       <c r="D22">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E22">
-        <v>2.608452643869552</v>
+        <v>-12.44886541640216</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>38848</v>
+        <v>40310</v>
       </c>
       <c r="B23">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C23">
-        <v>1.134182589932542</v>
+        <v>1.026818295716803</v>
       </c>
       <c r="D23">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E23">
-        <v>0.9849328351749564</v>
+        <v>0.6731564222281827</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>39217</v>
+        <v>40676</v>
       </c>
       <c r="B24">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C24">
-        <v>3.046387543902274</v>
+        <v>4.330112454756896</v>
       </c>
       <c r="D24">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E24">
-        <v>2.70919674139074</v>
+        <v>4.541390901327569</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>39583</v>
+        <v>41044</v>
       </c>
       <c r="B25">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C25">
-        <v>3.696216801135943</v>
+        <v>1.087923448804795</v>
       </c>
       <c r="D25">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E25">
-        <v>4.482779680928051</v>
+        <v>1.111295745068719</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>39948</v>
+        <v>41409</v>
       </c>
       <c r="B26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C26">
-        <v>-10.1884206506174</v>
+        <v>-0.6600930445666675</v>
       </c>
       <c r="D26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E26">
-        <v>-12.44886541640216</v>
+        <v>-0.7631906159002333</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>40310</v>
+        <v>41774</v>
       </c>
       <c r="B27">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C27">
-        <v>1.026818295716803</v>
+        <v>2.439056157886133</v>
       </c>
       <c r="D27">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E27">
-        <v>0.6731564222281827</v>
+        <v>2.712995226103132</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>40676</v>
+        <v>42137</v>
       </c>
       <c r="B28">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C28">
-        <v>4.330112454756896</v>
+        <v>1.478929861176237</v>
       </c>
       <c r="D28">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E28">
-        <v>4.541390901327569</v>
+        <v>1.676382600382564</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>41044</v>
+        <v>42503</v>
       </c>
       <c r="B29">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C29">
-        <v>1.087923448804795</v>
+        <v>1.880356773996161</v>
       </c>
       <c r="D29">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E29">
-        <v>1.111295745068719</v>
+        <v>2.143034813277178</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41409</v>
+        <v>42867</v>
       </c>
       <c r="B30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C30">
-        <v>-0.6600930445666675</v>
+        <v>1.929223532179036</v>
       </c>
       <c r="D30">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E30">
-        <v>-0.7631906159002333</v>
+        <v>2.187377386010447</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41774</v>
+        <v>43235</v>
       </c>
       <c r="B31">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C31">
-        <v>2.439056157886133</v>
+        <v>1.919825538525988</v>
       </c>
       <c r="D31">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E31">
-        <v>2.712995226103132</v>
+        <v>1.616739045460869</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>42137</v>
+        <v>43600</v>
       </c>
       <c r="B32">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C32">
-        <v>1.478929861176237</v>
+        <v>0.8478136117613833</v>
       </c>
       <c r="D32">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E32">
-        <v>1.676382600382564</v>
+        <v>1.153059686387214</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>42503</v>
+        <v>43966</v>
       </c>
       <c r="B33">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C33">
-        <v>1.880356773996161</v>
+        <v>-4.237342230872454</v>
       </c>
       <c r="D33">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.143034813277178</v>
+        <v>-5.891534789017571</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>42867</v>
+        <v>44341</v>
       </c>
       <c r="B34">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>1.929223532179036</v>
+        <v>-1.195442653096257</v>
       </c>
       <c r="D34">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>2.187377386010447</v>
+        <v>-4.00599668311078</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>43235</v>
+        <v>44706</v>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C35">
-        <v>1.919825538525988</v>
+        <v>1.344786076589832</v>
       </c>
       <c r="D35">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E35">
-        <v>1.616739045460869</v>
+        <v>0.1554161503046547</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>43600</v>
+        <v>45071</v>
       </c>
       <c r="B36">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C36">
-        <v>0.8478136117613833</v>
+        <v>-1.149816025990236</v>
       </c>
       <c r="D36">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E36">
-        <v>1.153059686387214</v>
+        <v>-1.603768089243041</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>43966</v>
+        <v>45436</v>
       </c>
       <c r="B37">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C37">
-        <v>-4.237342230872454</v>
+        <v>-0.213677328227746</v>
       </c>
       <c r="D37">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E37">
-        <v>-5.891534789017571</v>
+        <v>-0.1073236571678571</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44341</v>
+        <v>45800</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C38">
-        <v>-1.195442653096257</v>
+        <v>0.4937964215598223</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E38">
-        <v>-4.00599668311078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>44706</v>
-      </c>
-      <c r="B39">
-        <v>2022</v>
-      </c>
-      <c r="C39">
-        <v>1.344786076589832</v>
-      </c>
-      <c r="D39">
-        <v>2023</v>
-      </c>
-      <c r="E39">
-        <v>0.1554161503046547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>45071</v>
-      </c>
-      <c r="B40">
-        <v>2023</v>
-      </c>
-      <c r="C40">
-        <v>-1.149816025990236</v>
-      </c>
-      <c r="D40">
-        <v>2024</v>
-      </c>
-      <c r="E40">
-        <v>-1.603768089243041</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>45436</v>
-      </c>
-      <c r="B41">
-        <v>2024</v>
-      </c>
-      <c r="C41">
-        <v>-0.213677328227746</v>
-      </c>
-      <c r="D41">
-        <v>2025</v>
-      </c>
-      <c r="E41">
-        <v>-0.1073236571678571</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>45800</v>
-      </c>
-      <c r="B42">
-        <v>2025</v>
-      </c>
-      <c r="C42">
-        <v>0.4937964215598223</v>
-      </c>
-      <c r="D42">
-        <v>2026</v>
-      </c>
-      <c r="E42">
         <v>0.8228551885782087</v>
       </c>
     </row>
